--- a/medicine/Enfance/Sara_(auteur)/Sara_(auteur).xlsx
+++ b/medicine/Enfance/Sara_(auteur)/Sara_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sara, (à l'état civil Anne de La Roche Saint-André[1]), née le 17 mars 1950 à Nantes (France), et morte le 5 août 2023[2] à Paris, est une auteure pour la jeunesse, illustratrice, et réalisatrice française.
-Elle vit à Paris depuis 1971. En 2005, elle a reçu la Pomme d'Or de Bratislava[3] lors de la Biennale d'illustration de Bratislava.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara, (à l'état civil Anne de La Roche Saint-André), née le 17 mars 1950 à Nantes (France), et morte le 5 août 2023 à Paris, est une auteure pour la jeunesse, illustratrice, et réalisatrice française.
+Elle vit à Paris depuis 1971. En 2005, elle a reçu la Pomme d'Or de Bratislava lors de la Biennale d'illustration de Bratislava.
 Sara utilise, dans tous ses albums, comme dans son film À Quai, la technique du papier déchiré. La plupart de ses albums sont sans paroles. Ils sont réalisés en papiers déchirés et collés.
 </t>
         </is>
@@ -515,15 +527,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esthétique
-L'esthétique de Sara lui donne un rôle à part dans le monde de l'édition jeunesse, entre art et illustration, entre art contemporain et arts appliqués.
-Dans son entrevue avec J. Kotwica pour La revue des livres pour enfants[4], Sara dévoile la relation particulière qu'elle entretient avec le langage : « [Beaucoup de gens] privilégient l'idée d'une image, le concept intellectuel qui la sous-tend, alors que pour moi c'est l'impression qu'elle dégage qui est importante. […] Il y a, dans mon geste lorsque je déchire, une immédiateté, une proximité avec mes sentiments, que je n'éprouve pas de cette manière avec les autres techniques. […] Ce n'est pas une technique d'illustration. […] Mes images n'illustrent pas. En quelque sorte, elles sont le texte. […] Déchirer du papier, c'est un langage. J'utilise cet autre langage. »
-Thèmes
-Il est difficile de distinguer les thèmes esthétiques des thèmes purement scénaristiques.
+          <t>Esthétique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'esthétique de Sara lui donne un rôle à part dans le monde de l'édition jeunesse, entre art et illustration, entre art contemporain et arts appliqués.
+Dans son entrevue avec J. Kotwica pour La revue des livres pour enfants, Sara dévoile la relation particulière qu'elle entretient avec le langage : « [Beaucoup de gens] privilégient l'idée d'une image, le concept intellectuel qui la sous-tend, alors que pour moi c'est l'impression qu'elle dégage qui est importante. […] Il y a, dans mon geste lorsque je déchire, une immédiateté, une proximité avec mes sentiments, que je n'éprouve pas de cette manière avec les autres techniques. […] Ce n'est pas une technique d'illustration. […] Mes images n'illustrent pas. En quelque sorte, elles sont le texte. […] Déchirer du papier, c'est un langage. J'utilise cet autre langage. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sara_(auteur)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sara_(auteur)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Thèmes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est difficile de distinguer les thèmes esthétiques des thèmes purement scénaristiques.
 La ville, la mer, les animaux sont présents dans la majorité de ses albums. Mais le thème récurrent, au sens scénaristique du terme, de l’œuvre de Sara s’articule autour de la solitude et de la rencontre entre deux êtres.
-L'imagier de Sara, publié par la galeriste Marie-Thérèse Devèze[5], a révélé une cinquantaine de thèmes récurrents dans toute l'œuvre. L'originalité de l'imagier est de s'intéresser autant aux œuvres picturales qu'aux papiers déchirés.
-Techniques
-Sara utilise la technique du papier déchiré pour deux sortes d’œuvres : les albums, publiés chez des éditeurs jeunesse, et les tableaux de papier déchiré. Une série de tableaux parisiens en papier déchiré a été exposée à plusieurs reprises depuis sa création au cours de l’année 1995.
+L'imagier de Sara, publié par la galeriste Marie-Thérèse Devèze, a révélé une cinquantaine de thèmes récurrents dans toute l'œuvre. L'originalité de l'imagier est de s'intéresser autant aux œuvres picturales qu'aux papiers déchirés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sara_(auteur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sara_(auteur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Techniques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sara utilise la technique du papier déchiré pour deux sortes d’œuvres : les albums, publiés chez des éditeurs jeunesse, et les tableaux de papier déchiré. Une série de tableaux parisiens en papier déchiré a été exposée à plusieurs reprises depuis sa création au cours de l’année 1995.
 Outre ces albums et tableaux, elle a réalisé en 2004 un court-métrage d’un peu plus de quatre minutes entièrement en papier déchiré. L’esthétique et la narration sont complètement entremêlées chez cette artiste, et bien avant qu’elle ne s’ouvre au cinéma les critiques ont mis en avant un mode de narration cinétique, voire cinématographique.
 Le film À Quai, qui circule régulièrement dans les festivals internationaux, est vendu en DVD en accompagnement de l’album À Quai, réalisé à sa suite et édité aux Éditions du Seuil. La dualité de médias narratifs permet de donner deux points de vue sur une même histoire.
 </t>
